--- a/ex_3_phonebook/aaa.xlsx
+++ b/ex_3_phonebook/aaa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PYhomework_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB3FCA9-39FC-4644-A1D7-B67FEBC8BB84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870B3A58-5D76-4F0B-A06A-B12407C60E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,9 @@
     <t>рабочий</t>
   </si>
   <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
     <t>Иванович</t>
   </si>
   <si>
-    <t>Котов</t>
-  </si>
-  <si>
     <t>Фамилия</t>
   </si>
   <si>
@@ -59,6 +50,15 @@
   </si>
   <si>
     <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Дроздов</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Арбалетов</t>
   </si>
 </sst>
 </file>
@@ -420,11 +420,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
@@ -432,33 +433,33 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" s="2">
-        <v>88888</v>
+        <v>521254</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -466,7 +467,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
